--- a/biology/Zoologie/Buck_le_Loup/Buck_le_Loup.xlsx
+++ b/biology/Zoologie/Buck_le_Loup/Buck_le_Loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buck le Loup (titre original : Zanna Bianca alla riscossa) est un film italien réalisé par Tonino Ricci, sorti en 1974.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux hors-la loi tendent une embuscade à un chercheur d’or. Croc-Blanc, son chien-loup, réussit à leur échapper et court alerter Burt, son associé. Lorsque ce dernier arrive sur les lieux, il est déjà trop tard. Résolu à venger le défunt, Burt décide en tout premier lieu, d’usurper son identité.
 </t>
@@ -542,11 +556,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Zanna Bianca alla riscossa
-Titres français :  Buck le Loup ou La légende de Buck le Loup ou La Bataille de l'or[1]
+Titres français :  Buck le Loup ou La légende de Buck le Loup ou La Bataille de l'or
 Titre américain : White Fang to the Rescue
 Réalisation : Tonino Ricci
 Scénario : Alessandro Continenza, Giovanni Simonelli, d’après le roman L'Appel de la forêt de Jack London
@@ -557,7 +573,7 @@
 Durée : 97 minutes
 Dates de sortie :
 Italie : 9 février 1975
-France : 29 mai 1977[1]</t>
+France : 29 mai 1977</t>
         </is>
       </c>
     </row>
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maurizio Merli  (VF : Dominique Paturel) : Burt Halloway
 Henry Silva  (VF : Jean-Claude Michel) : monsieur Nelson
